--- a/data/output.xlsx
+++ b/data/output.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="61">
   <si>
     <t>ASIN</t>
   </si>
@@ -792,17 +792,17 @@
       <c r="B2" s="2">
         <v>600</v>
       </c>
-      <c r="C2" s="4">
-        <v>535</v>
+      <c r="C2" s="2" t="s">
+        <v>30</v>
       </c>
       <c r="D2" s="2">
         <v>295</v>
       </c>
-      <c r="E2" s="3">
-        <v>340</v>
+      <c r="E2" s="2" t="s">
+        <v>30</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>32</v>
@@ -954,7 +954,7 @@
         <v>449</v>
       </c>
       <c r="E2" s="3">
-        <v>616</v>
+        <v>632</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>37</v>
@@ -974,7 +974,7 @@
         <v>699</v>
       </c>
       <c r="E3" s="4">
-        <v>675</v>
+        <v>652</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>38</v>
@@ -994,7 +994,7 @@
         <v>399</v>
       </c>
       <c r="E4" s="3">
-        <v>675</v>
+        <v>652</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>38</v>
@@ -1014,7 +1014,7 @@
         <v>599</v>
       </c>
       <c r="E5" s="3">
-        <v>895</v>
+        <v>946</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>39</v>
@@ -1234,7 +1234,7 @@
         <v>749</v>
       </c>
       <c r="E2" s="3">
-        <v>877</v>
+        <v>849</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>56</v>

--- a/data/output.xlsx
+++ b/data/output.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="61">
   <si>
     <t>ASIN</t>
   </si>
@@ -792,17 +792,17 @@
       <c r="B2" s="2">
         <v>600</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>30</v>
+      <c r="C2" s="4">
+        <v>535</v>
       </c>
       <c r="D2" s="2">
         <v>295</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>30</v>
+      <c r="E2" s="3">
+        <v>340</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>32</v>

--- a/data/output.xlsx
+++ b/data/output.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2684" uniqueCount="1813">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2680" uniqueCount="1813">
   <si>
     <t>ASIN</t>
   </si>
@@ -6066,8 +6066,8 @@
       <c r="E9" s="2">
         <v>324</v>
       </c>
-      <c r="F9" s="3">
-        <v>316</v>
+      <c r="F9" s="4">
+        <v>324</v>
       </c>
       <c r="G9" s="2" t="s">
         <v>471</v>
@@ -6606,17 +6606,17 @@
       <c r="C30" s="2">
         <v>920</v>
       </c>
-      <c r="D30" s="4">
-        <v>920</v>
+      <c r="D30" s="2" t="s">
+        <v>470</v>
       </c>
       <c r="E30" s="2">
         <v>598</v>
       </c>
-      <c r="F30" s="4">
-        <v>598</v>
+      <c r="F30" s="2" t="s">
+        <v>470</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="H30" s="2" t="s">
         <v>503</v>
@@ -12297,17 +12297,17 @@
       <c r="B9" s="2">
         <v>450</v>
       </c>
-      <c r="C9" s="2" t="s">
-        <v>470</v>
+      <c r="C9" s="5">
+        <v>535</v>
       </c>
       <c r="D9" s="2">
         <v>349</v>
       </c>
-      <c r="E9" s="2" t="s">
-        <v>470</v>
+      <c r="E9" s="4">
+        <v>349</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>470</v>
+        <v>903</v>
       </c>
       <c r="G9" s="2" t="s">
         <v>913</v>
@@ -13792,17 +13792,17 @@
       <c r="B74" s="2">
         <v>995</v>
       </c>
-      <c r="C74" s="2" t="s">
-        <v>470</v>
+      <c r="C74" s="5">
+        <v>1225</v>
       </c>
       <c r="D74" s="2">
         <v>799</v>
       </c>
-      <c r="E74" s="2" t="s">
-        <v>470</v>
+      <c r="E74" s="4">
+        <v>799</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>470</v>
+        <v>903</v>
       </c>
       <c r="G74" s="2" t="s">
         <v>978</v>
@@ -15011,17 +15011,17 @@
       <c r="B127" s="2">
         <v>995</v>
       </c>
-      <c r="C127" s="2" t="s">
-        <v>470</v>
+      <c r="C127" s="4">
+        <v>995</v>
       </c>
       <c r="D127" s="2">
         <v>799</v>
       </c>
-      <c r="E127" s="2" t="s">
-        <v>470</v>
+      <c r="E127" s="4">
+        <v>799</v>
       </c>
       <c r="F127" s="2" t="s">
-        <v>470</v>
+        <v>903</v>
       </c>
       <c r="G127" s="2" t="s">
         <v>1031</v>
@@ -20072,7 +20072,7 @@
         <v>299</v>
       </c>
       <c r="E12" s="5">
-        <v>499</v>
+        <v>460</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>1384</v>
